--- a/Invest/投资计算公式.xlsx
+++ b/Invest/投资计算公式.xlsx
@@ -7,16 +7,17 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="神奇复利" sheetId="1" r:id="rId1"/>
+    <sheet name="大富豪计划" sheetId="3" r:id="rId2"/>
+    <sheet name="养老计划" sheetId="4" r:id="rId3"/>
+    <sheet name="教育金计划" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>计划每月定投</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,6 +32,210 @@
   </si>
   <si>
     <t>N年后的本金合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N年后的成本合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N年后的盈利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现复利的方法：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.红利再投资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.稳定盈利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.低买高卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.每周定投750</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持仓成本价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持有份额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新华优选分红混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金净值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富中证新能源汽车产业指数(LOF)C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏核心资产混合C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉实动力先锋混合C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生加银家盈6个月持有期债券C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>009910</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103340</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>009827</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年利率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孩子年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年收益（第1年）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022年收益（第2年）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023年收益（第3年）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024年收益（第4年）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025年收益（第5年）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2026年收益（第6年）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2027年收益（第7年）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2028年收益（第8年）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2029年收益（第9年）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2030年收益（第10年）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2031年收益（第11年）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2032年收益（第12年）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财富</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N年后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年利率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现存（一次性）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月存入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -38,10 +243,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="5">
+    <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="8" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,13 +274,51 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF3399"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -83,10 +330,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -100,12 +353,57 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="百分比" xfId="2" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3399"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -401,21 +699,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="24.875" customWidth="1"/>
     <col min="2" max="2" width="14.625" customWidth="1"/>
     <col min="3" max="3" width="15.25" customWidth="1"/>
     <col min="4" max="4" width="19.875" customWidth="1"/>
+    <col min="5" max="5" width="21.375" customWidth="1"/>
+    <col min="6" max="6" width="21.25" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
+    <col min="9" max="9" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -428,9 +731,21 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="3">
         <v>3000</v>
       </c>
       <c r="B2" s="1">
@@ -443,9 +758,24 @@
         <f>FV(C2/12,B2*12,-A2,0,1)</f>
         <v>17577976.478400387</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+      <c r="E2" s="5">
+        <f>A2*12*B2</f>
+        <v>720000</v>
+      </c>
+      <c r="F2" s="3">
+        <f>D2-E2</f>
+        <v>16857976.478400387</v>
+      </c>
+      <c r="G2" s="1">
+        <f>35+B2</f>
+        <v>55</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="3">
         <v>3000</v>
       </c>
       <c r="B3" s="1">
@@ -458,9 +788,24 @@
         <f>FV(C3/12,B3*12,-A3,0,1)</f>
         <v>190723852.54557648</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:E6" si="0">A3*12*B3</f>
+        <v>1080000</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F6" si="1">D3-E3</f>
+        <v>189643852.54557648</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G6" si="2">35+B3</f>
+        <v>65</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="3">
         <v>3000</v>
       </c>
       <c r="B4" s="1">
@@ -472,6 +817,379 @@
       <c r="D4" s="3">
         <f>FV(C4/12,B4*12,-A4,0,1)</f>
         <v>2054667437.1084161</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="0"/>
+        <v>1440000</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="1"/>
+        <v>2053227437.1084161</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B5" s="1">
+        <v>50</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="D5" s="3">
+        <f>FV(C5/12,B5*12,-A5,0,1)</f>
+        <v>22120324011.481789</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
+        <v>1800000</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="1"/>
+        <v>22118524011.481789</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="10" customFormat="1">
+      <c r="A6" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="D6" s="8">
+        <f>FV(C6/12,B6*12,-A6,0,1)</f>
+        <v>41040.994568069429</v>
+      </c>
+      <c r="E6" s="9">
+        <f t="shared" si="0"/>
+        <v>36000</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" si="1"/>
+        <v>5040.9945680694291</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="4" customFormat="1">
+      <c r="A9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1">
+      <c r="A10" s="3">
+        <v>15000</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="C10" s="17">
+        <v>44197</v>
+      </c>
+      <c r="D10" s="17">
+        <v>47848</v>
+      </c>
+      <c r="E10" s="18">
+        <f>_xlfn.CEILING.PRECISE((D10-C10)/366)</f>
+        <v>10</v>
+      </c>
+      <c r="F10" s="3">
+        <f>A10*POWER(1+B10,(D10-C10)/365)</f>
+        <v>128992.3813760453</v>
+      </c>
+      <c r="G10" s="1">
+        <f>35+E10</f>
+        <v>45</v>
+      </c>
+      <c r="H10" s="18">
+        <f>7+E10</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1">
+      <c r="A11" s="3">
+        <v>15000</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="C11" s="17">
+        <v>44197</v>
+      </c>
+      <c r="D11" s="17">
+        <v>50770</v>
+      </c>
+      <c r="E11" s="18">
+        <f>_xlfn.CEILING.PRECISE((D11-C11)/366)</f>
+        <v>18</v>
+      </c>
+      <c r="F11" s="3">
+        <f>A11*POWER(1+B11,(D11-C11)/365)</f>
+        <v>721854.12312367884</v>
+      </c>
+      <c r="G11" s="1">
+        <f>35+E11</f>
+        <v>53</v>
+      </c>
+      <c r="H11" s="18">
+        <f t="shared" ref="H11:H12" si="3">7+E11</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="3">
+        <v>15000</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="C12" s="17">
+        <v>44197</v>
+      </c>
+      <c r="D12" s="17">
+        <v>44561</v>
+      </c>
+      <c r="E12" s="18">
+        <f>_xlfn.CEILING.PRECISE((D12-C12)/366)</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <f>A12*POWER(1+B12,(D12-C12)/365)</f>
+        <v>18589.041389358426</v>
+      </c>
+      <c r="G12" s="1">
+        <f>35+E12</f>
+        <v>36</v>
+      </c>
+      <c r="H12" s="18">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="D13" s="17"/>
+    </row>
+    <row r="15" spans="1:9" s="4" customFormat="1">
+      <c r="A15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="3">
+        <v>6000</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="3">
+        <f>A16*POWER(1+$B$16,1)</f>
+        <v>7440</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="3">
+        <f>B17*POWER(1+$B$16,1)</f>
+        <v>9225.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="3">
+        <f t="shared" ref="B19:B28" si="4">B18*POWER(1+$B$16,1)</f>
+        <v>11439.744000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="3">
+        <f t="shared" si="4"/>
+        <v>14185.282560000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="3">
+        <f t="shared" si="4"/>
+        <v>17589.750374400002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="3">
+        <f t="shared" si="4"/>
+        <v>21811.290464256002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="3">
+        <f t="shared" si="4"/>
+        <v>27046.000175677444</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="3">
+        <f t="shared" si="4"/>
+        <v>33537.040217840033</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="3">
+        <f t="shared" si="4"/>
+        <v>41585.929870121639</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="3">
+        <f t="shared" si="4"/>
+        <v>51566.553038950835</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="3">
+        <f t="shared" si="4"/>
+        <v>63942.525768299034</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="3">
+        <f t="shared" si="4"/>
+        <v>79288.731952690796</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="3">
+        <v>100000000</v>
+      </c>
+      <c r="B31" s="1">
+        <v>25</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="D31" s="3">
+        <f>A31*POWER(1+C31,-B31)</f>
+        <v>461804.19206680416</v>
+      </c>
+      <c r="E31" s="3">
+        <f>PMT(C31/12,B31*12,,-A31)</f>
+        <v>5273.7816772609949</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="B32" s="1">
+        <v>10</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="D32" s="3">
+        <f>A32*POWER(1+C32,-B32)</f>
+        <v>116354.49038968913</v>
+      </c>
+      <c r="E32" s="3">
+        <f>PMT(C32/12,B32*12,,-A32)</f>
+        <v>2048.0968858329861</v>
       </c>
     </row>
   </sheetData>
@@ -483,14 +1201,199 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="35.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="1" customWidth="1"/>
+    <col min="5" max="6" width="14.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="16">
+        <v>519087</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3030.03</v>
+      </c>
+      <c r="D2" s="14">
+        <v>0.99009999999999998</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0.98070000000000002</v>
+      </c>
+      <c r="F2" s="14">
+        <f>C2*D2</f>
+        <v>3000.0327030000003</v>
+      </c>
+      <c r="G2" s="14">
+        <f>E2*C2</f>
+        <v>2971.5504210000004</v>
+      </c>
+      <c r="H2" s="15">
+        <f>(G2-F2)/F2</f>
+        <v>-9.4939905060094729E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="16">
+        <v>501058</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1369.76</v>
+      </c>
+      <c r="D3" s="14">
+        <v>2.0295999999999998</v>
+      </c>
+      <c r="E3" s="14">
+        <v>2.2826</v>
+      </c>
+      <c r="F3" s="14">
+        <f>C3*D3</f>
+        <v>2780.0648959999999</v>
+      </c>
+      <c r="G3" s="14">
+        <f>E3*C3</f>
+        <v>3126.614176</v>
+      </c>
+      <c r="H3" s="15">
+        <f>(G3-F3)/F3</f>
+        <v>0.12465510445407969</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D4" s="14">
+        <v>1</v>
+      </c>
+      <c r="E4" s="14">
+        <v>1.0203</v>
+      </c>
+      <c r="F4" s="14">
+        <f>C4*D4</f>
+        <v>3000</v>
+      </c>
+      <c r="G4" s="14">
+        <f>E4*C4</f>
+        <v>3060.9</v>
+      </c>
+      <c r="H4" s="15">
+        <f>(G4-F4)/F4</f>
+        <v>2.030000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1">
+        <v>381.24</v>
+      </c>
+      <c r="D5" s="14">
+        <v>1</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1.1209</v>
+      </c>
+      <c r="F5" s="14">
+        <f>C5*D5</f>
+        <v>381.24</v>
+      </c>
+      <c r="G5" s="14">
+        <f>E5*C5</f>
+        <v>427.33191600000004</v>
+      </c>
+      <c r="H5" s="15">
+        <f>(G5-F5)/F5</f>
+        <v>0.12090000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1000.45</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1.0351999999999999</v>
+      </c>
+      <c r="F6" s="14">
+        <f>C6*D6</f>
+        <v>1000.0498200000001</v>
+      </c>
+      <c r="G6" s="14">
+        <f>E6*C6</f>
+        <v>1035.6658399999999</v>
+      </c>
+      <c r="H6" s="15">
+        <f>(G6-F6)/F6</f>
+        <v>3.5614245698279132E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -498,9 +1401,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Invest/投资计算公式.xlsx
+++ b/Invest/投资计算公式.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="神奇复利" sheetId="1" r:id="rId1"/>
     <sheet name="大富豪计划" sheetId="3" r:id="rId2"/>
     <sheet name="养老计划" sheetId="4" r:id="rId3"/>
     <sheet name="教育金计划" sheetId="2" r:id="rId4"/>
+    <sheet name="指标" sheetId="5" r:id="rId5"/>
+    <sheet name="行情" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
   <si>
     <t>计划每月定投</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,199 +45,231 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>实现复利的方法：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.红利再投资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.稳定盈利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.低买高卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.每周定投750</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持仓成本价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持有份额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新华优选分红混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金净值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇添富中证新能源汽车产业指数(LOF)C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏核心资产混合C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉实动力先锋混合C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生加银家盈6个月持有期债券C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>009910</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103340</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>009827</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年利率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孩子年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年收益（第1年）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022年收益（第2年）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023年收益（第3年）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024年收益（第4年）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025年收益（第5年）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2026年收益（第6年）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2027年收益（第7年）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2028年收益（第8年）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2029年收益（第9年）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2030年收益（第10年）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2031年收益（第11年）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2032年收益（第12年）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财富</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N年后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年利率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现存（一次性）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月存入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2021年目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实现复利的方法：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.红利再投资</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.稳定盈利</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.低买高卖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.每周定投750</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基金名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基金编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持仓成本价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持有份额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新华优选分红混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基金净值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇添富中证新能源汽车产业指数(LOF)C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成本价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华夏核心资产混合C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉实动力先锋混合C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民生加银家盈6个月持有期债券C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>009910</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>103340</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>009827</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年利率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的年龄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的年龄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孩子年龄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021年收益（第1年）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022年收益（第2年）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023年收益（第3年）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024年收益（第4年）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025年收益（第5年）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2026年收益（第6年）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2027年收益（第7年）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2028年收益（第8年）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2029年收益（第9年）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2030年收益（第10年）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2031年收益（第11年）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2032年收益（第12年）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财富</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N年后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年利率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现存（一次性）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每月存入</t>
+    <t>2021年目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新汽车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传媒ETF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -250,7 +284,7 @@
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +340,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -339,7 +381,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -389,6 +431,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="7" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -699,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -738,15 +797,15 @@
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="B2" s="1">
         <v>20</v>
@@ -755,28 +814,28 @@
         <v>0.24</v>
       </c>
       <c r="D2" s="3">
-        <f>FV(C2/12,B2*12,-A2,0,1)</f>
-        <v>17577976.478400387</v>
+        <f t="shared" ref="D2:D8" si="0">FV(C2/12,B2*12,-A2,0,1)</f>
+        <v>11718650.985600257</v>
       </c>
       <c r="E2" s="5">
         <f>A2*12*B2</f>
-        <v>720000</v>
+        <v>480000</v>
       </c>
       <c r="F2" s="3">
         <f>D2-E2</f>
-        <v>16857976.478400387</v>
+        <v>11238650.985600257</v>
       </c>
       <c r="G2" s="1">
         <f>35+B2</f>
         <v>55</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="B3" s="1">
         <v>30</v>
@@ -785,28 +844,28 @@
         <v>0.24</v>
       </c>
       <c r="D3" s="3">
-        <f>FV(C3/12,B3*12,-A3,0,1)</f>
-        <v>190723852.54557648</v>
+        <f t="shared" si="0"/>
+        <v>127149235.03038432</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" ref="E3:E6" si="0">A3*12*B3</f>
-        <v>1080000</v>
+        <f t="shared" ref="E3:E8" si="1">A3*12*B3</f>
+        <v>720000</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" ref="F3:F6" si="1">D3-E3</f>
-        <v>189643852.54557648</v>
+        <f t="shared" ref="F3:F8" si="2">D3-E3</f>
+        <v>126429235.03038432</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G6" si="2">35+B3</f>
+        <f t="shared" ref="G3:G8" si="3">35+B3</f>
         <v>65</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="B4" s="1">
         <v>40</v>
@@ -815,28 +874,28 @@
         <v>0.24</v>
       </c>
       <c r="D4" s="3">
-        <f>FV(C4/12,B4*12,-A4,0,1)</f>
-        <v>2054667437.1084161</v>
+        <f t="shared" si="0"/>
+        <v>1369778291.4056108</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" si="0"/>
-        <v>1440000</v>
+        <f t="shared" si="1"/>
+        <v>960000</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" si="1"/>
-        <v>2053227437.1084161</v>
+        <f t="shared" si="2"/>
+        <v>1368818291.4056108</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="B5" s="1">
         <v>50</v>
@@ -845,28 +904,28 @@
         <v>0.24</v>
       </c>
       <c r="D5" s="3">
-        <f>FV(C5/12,B5*12,-A5,0,1)</f>
-        <v>22120324011.481789</v>
+        <f t="shared" si="0"/>
+        <v>14746882674.321194</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" si="0"/>
-        <v>1800000</v>
+        <f t="shared" si="1"/>
+        <v>1200000</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="1"/>
-        <v>22118524011.481789</v>
+        <f t="shared" si="2"/>
+        <v>14745682674.321194</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="10" customFormat="1">
       <c r="A6" s="3">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
@@ -875,320 +934,436 @@
         <v>0.24</v>
       </c>
       <c r="D6" s="8">
-        <f>FV(C6/12,B6*12,-A6,0,1)</f>
-        <v>41040.994568069429</v>
+        <f t="shared" si="0"/>
+        <v>27360.663045379617</v>
       </c>
       <c r="E6" s="9">
+        <f t="shared" si="1"/>
+        <v>24000</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" si="2"/>
+        <v>3360.663045379617</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="24" customFormat="1">
+      <c r="A7" s="19">
+        <v>1000</v>
+      </c>
+      <c r="B7" s="20">
+        <v>10</v>
+      </c>
+      <c r="C7" s="21">
+        <v>0.32</v>
+      </c>
+      <c r="D7" s="19">
         <f t="shared" si="0"/>
-        <v>36000</v>
-      </c>
-      <c r="F6" s="8">
+        <v>867224.55748058646</v>
+      </c>
+      <c r="E7" s="22">
         <f t="shared" si="1"/>
-        <v>5040.9945680694291</v>
-      </c>
-      <c r="G6" s="6">
+        <v>120000</v>
+      </c>
+      <c r="F7" s="19">
         <f t="shared" si="2"/>
+        <v>747224.55748058646</v>
+      </c>
+      <c r="G7" s="20">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="1:9" s="10" customFormat="1">
+      <c r="A8" s="19">
+        <v>1000</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="D8" s="8">
+        <f t="shared" si="0"/>
+        <v>14297.610874646067</v>
+      </c>
+      <c r="E8" s="9">
+        <f t="shared" si="1"/>
+        <v>12000</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="2"/>
+        <v>2297.6108746460668</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="4" customFormat="1">
-      <c r="A9" s="4" t="s">
+      <c r="H8" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="24" customFormat="1">
+      <c r="A9" s="19">
+        <v>600</v>
+      </c>
+      <c r="B9" s="20">
+        <v>10</v>
+      </c>
+      <c r="C9" s="21">
+        <v>0.32</v>
+      </c>
+      <c r="D9" s="19">
+        <f t="shared" ref="D9:D10" si="4">FV(C9/12,B9*12,-A9,0,1)</f>
+        <v>520334.73448835185</v>
+      </c>
+      <c r="E9" s="22">
+        <f t="shared" ref="E9:E10" si="5">A9*12*B9</f>
+        <v>72000</v>
+      </c>
+      <c r="F9" s="19">
+        <f t="shared" ref="F9:F10" si="6">D9-E9</f>
+        <v>448334.73448835185</v>
+      </c>
+      <c r="G9" s="20">
+        <f t="shared" ref="G9:G10" si="7">35+B9</f>
+        <v>45</v>
+      </c>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="1:9" s="10" customFormat="1">
+      <c r="A10" s="19">
+        <v>600</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" si="4"/>
+        <v>8578.5665247876404</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="5"/>
+        <v>7200</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="6"/>
+        <v>1378.5665247876404</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="4" customFormat="1">
+      <c r="A13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="F13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="1" customFormat="1">
-      <c r="A10" s="3">
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1">
+      <c r="A14" s="3">
         <v>15000</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B14" s="2">
         <v>0.24</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C14" s="17">
         <v>44197</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D14" s="17">
         <v>47848</v>
       </c>
-      <c r="E10" s="18">
-        <f>_xlfn.CEILING.PRECISE((D10-C10)/366)</f>
+      <c r="E14" s="18">
+        <f>_xlfn.CEILING.PRECISE((D14-C14)/366)</f>
         <v>10</v>
       </c>
-      <c r="F10" s="3">
-        <f>A10*POWER(1+B10,(D10-C10)/365)</f>
+      <c r="F14" s="3">
+        <f>A14*POWER(1+B14,(D14-C14)/365)</f>
         <v>128992.3813760453</v>
       </c>
-      <c r="G10" s="1">
-        <f>35+E10</f>
+      <c r="G14" s="1">
+        <f>35+E14</f>
         <v>45</v>
       </c>
-      <c r="H10" s="18">
-        <f>7+E10</f>
+      <c r="H14" s="18">
+        <f>7+E14</f>
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1">
-      <c r="A11" s="3">
+    <row r="15" spans="1:9" s="1" customFormat="1">
+      <c r="A15" s="3">
         <v>15000</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B15" s="2">
         <v>0.24</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C15" s="17">
         <v>44197</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D15" s="17">
         <v>50770</v>
       </c>
-      <c r="E11" s="18">
-        <f>_xlfn.CEILING.PRECISE((D11-C11)/366)</f>
+      <c r="E15" s="18">
+        <f>_xlfn.CEILING.PRECISE((D15-C15)/366)</f>
         <v>18</v>
       </c>
-      <c r="F11" s="3">
-        <f>A11*POWER(1+B11,(D11-C11)/365)</f>
+      <c r="F15" s="3">
+        <f>A15*POWER(1+B15,(D15-C15)/365)</f>
         <v>721854.12312367884</v>
       </c>
-      <c r="G11" s="1">
-        <f>35+E11</f>
+      <c r="G15" s="1">
+        <f>35+E15</f>
         <v>53</v>
       </c>
-      <c r="H11" s="18">
-        <f t="shared" ref="H11:H12" si="3">7+E11</f>
+      <c r="H15" s="18">
+        <f t="shared" ref="H15:H16" si="8">7+E15</f>
         <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="3">
-        <v>15000</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.24</v>
-      </c>
-      <c r="C12" s="17">
-        <v>44197</v>
-      </c>
-      <c r="D12" s="17">
-        <v>44561</v>
-      </c>
-      <c r="E12" s="18">
-        <f>_xlfn.CEILING.PRECISE((D12-C12)/366)</f>
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <f>A12*POWER(1+B12,(D12-C12)/365)</f>
-        <v>18589.041389358426</v>
-      </c>
-      <c r="G12" s="1">
-        <f>35+E12</f>
-        <v>36</v>
-      </c>
-      <c r="H12" s="18">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="D13" s="17"/>
-    </row>
-    <row r="15" spans="1:9" s="4" customFormat="1">
-      <c r="A15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="B16" s="2">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
+      <c r="C16" s="17">
+        <v>44197</v>
+      </c>
+      <c r="D16" s="17">
+        <v>44561</v>
+      </c>
+      <c r="E16" s="18">
+        <f>_xlfn.CEILING.PRECISE((D16-C16)/366)</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <f>A16*POWER(1+B16,(D16-C16)/365)</f>
+        <v>18589.041389358426</v>
+      </c>
+      <c r="G16" s="1">
+        <f>35+E16</f>
+        <v>36</v>
+      </c>
+      <c r="H16" s="18">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="D17" s="17"/>
+    </row>
+    <row r="19" spans="1:4" s="4" customFormat="1">
+      <c r="A19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3">
+        <v>6000</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="3">
+        <f>A20*POWER(1+$B$20,1)</f>
+        <v>7440</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="3">
-        <f>A16*POWER(1+$B$16,1)</f>
-        <v>7440</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
+      <c r="B22" s="3">
+        <f>B21*POWER(1+$B$20,1)</f>
+        <v>9225.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="3">
-        <f>B17*POWER(1+$B$16,1)</f>
-        <v>9225.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
+      <c r="B23" s="3">
+        <f t="shared" ref="B23:B32" si="9">B22*POWER(1+$B$20,1)</f>
+        <v>11439.744000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="3">
-        <f t="shared" ref="B19:B28" si="4">B18*POWER(1+$B$16,1)</f>
-        <v>11439.744000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1" t="s">
+      <c r="B24" s="3">
+        <f t="shared" si="9"/>
+        <v>14185.282560000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="3">
-        <f t="shared" si="4"/>
-        <v>14185.282560000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1" t="s">
+      <c r="B25" s="3">
+        <f t="shared" si="9"/>
+        <v>17589.750374400002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="3">
-        <f t="shared" si="4"/>
-        <v>17589.750374400002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1" t="s">
+      <c r="B26" s="3">
+        <f t="shared" si="9"/>
+        <v>21811.290464256002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="3">
-        <f t="shared" si="4"/>
-        <v>21811.290464256002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1" t="s">
+      <c r="B27" s="3">
+        <f t="shared" si="9"/>
+        <v>27046.000175677444</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="3">
-        <f t="shared" si="4"/>
-        <v>27046.000175677444</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1" t="s">
+      <c r="B28" s="3">
+        <f t="shared" si="9"/>
+        <v>33537.040217840033</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="3">
-        <f t="shared" si="4"/>
-        <v>33537.040217840033</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1" t="s">
+      <c r="B29" s="3">
+        <f t="shared" si="9"/>
+        <v>41585.929870121639</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="3">
-        <f t="shared" si="4"/>
-        <v>41585.929870121639</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1" t="s">
+      <c r="B30" s="3">
+        <f t="shared" si="9"/>
+        <v>51566.553038950835</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="3">
-        <f t="shared" si="4"/>
-        <v>51566.553038950835</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1" t="s">
+      <c r="B31" s="3">
+        <f t="shared" si="9"/>
+        <v>63942.525768299034</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="3">
-        <f t="shared" si="4"/>
-        <v>63942.525768299034</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1" t="s">
+      <c r="B32" s="3">
+        <f t="shared" si="9"/>
+        <v>79288.731952690796</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="3">
-        <f t="shared" si="4"/>
-        <v>79288.731952690796</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="3">
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="3">
         <v>100000000</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B35" s="1">
         <v>25</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C35" s="2">
         <v>0.24</v>
       </c>
-      <c r="D31" s="3">
-        <f>A31*POWER(1+C31,-B31)</f>
+      <c r="D35" s="3">
+        <f>A35*POWER(1+C35,-B35)</f>
         <v>461804.19206680416</v>
       </c>
-      <c r="E31" s="3">
-        <f>PMT(C31/12,B31*12,,-A31)</f>
+      <c r="E35" s="3">
+        <f>PMT(C35/12,B35*12,,-A35)</f>
         <v>5273.7816772609949</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="3">
+    <row r="36" spans="1:5">
+      <c r="A36" s="3">
         <v>1000000</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B36" s="1">
         <v>10</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C36" s="2">
         <v>0.24</v>
       </c>
-      <c r="D32" s="3">
-        <f>A32*POWER(1+C32,-B32)</f>
+      <c r="D36" s="3">
+        <f>A36*POWER(1+C36,-B36)</f>
         <v>116354.49038968913</v>
       </c>
-      <c r="E32" s="3">
-        <f>PMT(C32/12,B32*12,,-A32)</f>
+      <c r="E36" s="3">
+        <f>PMT(C36/12,B36*12,,-A36)</f>
         <v>2048.0968858329861</v>
       </c>
     </row>
@@ -1201,10 +1376,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1216,38 +1391,40 @@
     <col min="5" max="6" width="14.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="15.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.25" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1">
+    <row r="1" spans="1:9" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="B2" s="16">
         <v>519087</v>
@@ -1274,9 +1451,9 @@
         <v>-9.4939905060094729E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="16">
         <v>501058</v>
@@ -1303,12 +1480,12 @@
         <v>0.12465510445407969</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1">
         <v>3000</v>
@@ -1332,12 +1509,12 @@
         <v>2.030000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1">
         <v>381.24</v>
@@ -1361,12 +1538,12 @@
         <v>0.12090000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1">
         <v>1000.45</v>
@@ -1388,6 +1565,48 @@
       <c r="H6" s="15">
         <f>(G6-F6)/F6</f>
         <v>3.5614245698279132E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="E11" s="4"/>
+      <c r="F11" s="14">
+        <f>SUM(F2:F9)</f>
+        <v>10161.387419000001</v>
+      </c>
+      <c r="G11" s="25">
+        <f>SUM(G2:G9)</f>
+        <v>10622.062352999999</v>
+      </c>
+      <c r="H11" s="15">
+        <f>IFERROR((G11-F11)/F11,0)</f>
+        <v>4.5335830138571231E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="G12" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="G13" s="25">
+        <f>神奇复利!D6</f>
+        <v>27360.663045379617</v>
       </c>
     </row>
   </sheetData>
@@ -1399,14 +1618,119 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="17.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="1">
+        <v>510230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1">
+      <c r="A3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="1">
+        <v>515030</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1">
+      <c r="A4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="1">
+        <v>159805</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1"/>
+    <row r="6" spans="1:9" s="1" customFormat="1"/>
+    <row r="7" spans="1:9" s="1" customFormat="1"/>
+    <row r="8" spans="1:9" s="1" customFormat="1"/>
+    <row r="9" spans="1:9" s="1" customFormat="1"/>
+    <row r="10" spans="1:9" s="1" customFormat="1">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1">
+      <c r="E11" s="4"/>
+      <c r="F11" s="14">
+        <f>SUM(F2:F9)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="25">
+        <f>SUM(G2:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="15">
+        <f>IFERROR((G11-F11)/F11,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1">
+      <c r="G12" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1">
+      <c r="G13" s="25">
+        <f>神奇复利!D8</f>
+        <v>14297.610874646067</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1414,15 +1738,125 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="2" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="15.25" customWidth="1"/>
+    <col min="4" max="4" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="6" max="6" width="18.25" customWidth="1"/>
+    <col min="7" max="7" width="15.875" customWidth="1"/>
+    <col min="8" max="8" width="16.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1">
+      <c r="E11" s="4"/>
+      <c r="F11" s="14">
+        <f>SUM(F2:F9)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="25">
+        <f>SUM(G2:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="15">
+        <f>IFERROR((G11-F11)/F11,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1">
+      <c r="G12" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1">
+      <c r="G13" s="25">
+        <f>神奇复利!D10</f>
+        <v>8578.5665247876404</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>